--- a/Student Files/SC9-Data.xlsx
+++ b/Student Files/SC9-Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gself\Dropbox\GitHub\cll_excel\Student Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gself\Desktop\Excel 365 Exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9068584B-782E-4F4C-AACC-D2981A9B01D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC8A9FB-7590-4BFB-A6B8-4E3CE20A5D31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31230" yWindow="915" windowWidth="19365" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30750" yWindow="615" windowWidth="22305" windowHeight="14340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -1955,7 +1955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE520C22-B0E3-47AC-98ED-5D0E482B8659}">
   <dimension ref="A1:N363"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16253,9 +16253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D969BF4B-6F6A-45E3-8E43-0C95AA030658}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
